--- a/upload/files/陈燕日报.xlsx
+++ b/upload/files/陈燕日报.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hezhuopeng/Desktop/报表/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9165" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19860" windowHeight="11080"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$T$271</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5220" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5220" uniqueCount="1059">
   <si>
     <t>姓名</t>
   </si>
@@ -3196,13 +3204,17 @@
   </si>
   <si>
     <t>清缴费用，开单未检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡云凤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3574,19 +3586,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M279" sqref="M279"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R264" sqref="R264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="9" width="9.140625" style="3"/>
+    <col min="8" max="9" width="8.83203125" style="3"/>
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3648,7 +3661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3710,7 +3723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -3772,7 +3785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -3834,7 +3847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -3896,7 +3909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3958,7 +3971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -4020,7 +4033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -4082,7 +4095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -4144,7 +4157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -4206,7 +4219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -4268,7 +4281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -4330,7 +4343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -4392,7 +4405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -4454,7 +4467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -4516,7 +4529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -4578,7 +4591,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -4640,7 +4653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4702,7 +4715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -4764,7 +4777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -4826,7 +4839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -4888,7 +4901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -4950,7 +4963,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -5012,7 +5025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -5074,7 +5087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -5136,7 +5149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -5198,7 +5211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -5260,7 +5273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -5322,7 +5335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -5384,7 +5397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -5446,7 +5459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -5508,7 +5521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -5570,7 +5583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -5632,7 +5645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -5694,7 +5707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -5756,7 +5769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -5818,7 +5831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -5880,7 +5893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -5942,7 +5955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -6004,7 +6017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -6066,7 +6079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -6128,7 +6141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -6190,7 +6203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -6252,7 +6265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>151</v>
       </c>
@@ -6314,7 +6327,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>154</v>
       </c>
@@ -6376,7 +6389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -6438,7 +6451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>163</v>
       </c>
@@ -6500,7 +6513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>169</v>
       </c>
@@ -6562,7 +6575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -6624,7 +6637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>181</v>
       </c>
@@ -6686,7 +6699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>187</v>
       </c>
@@ -6748,7 +6761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>190</v>
       </c>
@@ -6810,7 +6823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>196</v>
       </c>
@@ -6872,7 +6885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -6934,7 +6947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -6996,7 +7009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -7058,7 +7071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>220</v>
       </c>
@@ -7120,7 +7133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>226</v>
       </c>
@@ -7182,7 +7195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -7244,7 +7257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>238</v>
       </c>
@@ -7306,7 +7319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>243</v>
       </c>
@@ -7368,7 +7381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>248</v>
       </c>
@@ -7430,7 +7443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>254</v>
       </c>
@@ -7492,7 +7505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>260</v>
       </c>
@@ -7554,7 +7567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>266</v>
       </c>
@@ -7616,7 +7629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>272</v>
       </c>
@@ -7678,7 +7691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>275</v>
       </c>
@@ -7740,7 +7753,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>281</v>
       </c>
@@ -7802,7 +7815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>287</v>
       </c>
@@ -7864,7 +7877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>293</v>
       </c>
@@ -7926,7 +7939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>299</v>
       </c>
@@ -7988,7 +8001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>305</v>
       </c>
@@ -8050,7 +8063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>309</v>
       </c>
@@ -8112,7 +8125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>315</v>
       </c>
@@ -8174,7 +8187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>315</v>
       </c>
@@ -8236,7 +8249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>326</v>
       </c>
@@ -8298,7 +8311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>331</v>
       </c>
@@ -8360,7 +8373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>337</v>
       </c>
@@ -8422,7 +8435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>64</v>
       </c>
@@ -8484,7 +8497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>275</v>
       </c>
@@ -8546,7 +8559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>353</v>
       </c>
@@ -8608,7 +8621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>361</v>
       </c>
@@ -8670,7 +8683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>367</v>
       </c>
@@ -8732,7 +8745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>371</v>
       </c>
@@ -8794,7 +8807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>375</v>
       </c>
@@ -8856,7 +8869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>379</v>
       </c>
@@ -8918,7 +8931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>383</v>
       </c>
@@ -8980,7 +8993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>387</v>
       </c>
@@ -9042,7 +9055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>391</v>
       </c>
@@ -9104,7 +9117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>395</v>
       </c>
@@ -9166,7 +9179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>399</v>
       </c>
@@ -9228,7 +9241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>403</v>
       </c>
@@ -9290,7 +9303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>408</v>
       </c>
@@ -9352,7 +9365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>411</v>
       </c>
@@ -9414,7 +9427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>415</v>
       </c>
@@ -9476,7 +9489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>421</v>
       </c>
@@ -9538,7 +9551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>427</v>
       </c>
@@ -9600,7 +9613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>431</v>
       </c>
@@ -9662,7 +9675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>434</v>
       </c>
@@ -9724,7 +9737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>437</v>
       </c>
@@ -9786,7 +9799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>443</v>
       </c>
@@ -9848,7 +9861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>448</v>
       </c>
@@ -9910,7 +9923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>454</v>
       </c>
@@ -9972,7 +9985,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>457</v>
       </c>
@@ -10034,7 +10047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>461</v>
       </c>
@@ -10096,7 +10109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>468</v>
       </c>
@@ -10158,7 +10171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>474</v>
       </c>
@@ -10220,7 +10233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>478</v>
       </c>
@@ -10282,7 +10295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>481</v>
       </c>
@@ -10344,7 +10357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>484</v>
       </c>
@@ -10406,7 +10419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>490</v>
       </c>
@@ -10468,7 +10481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>496</v>
       </c>
@@ -10530,7 +10543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>500</v>
       </c>
@@ -10592,7 +10605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>504</v>
       </c>
@@ -10654,7 +10667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>508</v>
       </c>
@@ -10716,7 +10729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>512</v>
       </c>
@@ -10778,7 +10791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>516</v>
       </c>
@@ -10840,7 +10853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>520</v>
       </c>
@@ -10902,7 +10915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>523</v>
       </c>
@@ -10964,7 +10977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>526</v>
       </c>
@@ -11026,7 +11039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>448</v>
       </c>
@@ -11088,7 +11101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>531</v>
       </c>
@@ -11150,7 +11163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>535</v>
       </c>
@@ -11212,7 +11225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>539</v>
       </c>
@@ -11274,7 +11287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>542</v>
       </c>
@@ -11336,7 +11349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>545</v>
       </c>
@@ -11398,7 +11411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>548</v>
       </c>
@@ -11460,7 +11473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>551</v>
       </c>
@@ -11522,7 +11535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>555</v>
       </c>
@@ -11584,7 +11597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>558</v>
       </c>
@@ -11646,7 +11659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>562</v>
       </c>
@@ -11708,7 +11721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>565</v>
       </c>
@@ -11770,7 +11783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>568</v>
       </c>
@@ -11832,7 +11845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>571</v>
       </c>
@@ -11894,7 +11907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>574</v>
       </c>
@@ -11956,7 +11969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>577</v>
       </c>
@@ -12018,7 +12031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>580</v>
       </c>
@@ -12080,7 +12093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>583</v>
       </c>
@@ -12142,7 +12155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>586</v>
       </c>
@@ -12204,7 +12217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>589</v>
       </c>
@@ -12266,7 +12279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>592</v>
       </c>
@@ -12328,7 +12341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>595</v>
       </c>
@@ -12390,7 +12403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>599</v>
       </c>
@@ -12452,7 +12465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>534</v>
       </c>
@@ -12514,7 +12527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>604</v>
       </c>
@@ -12576,7 +12589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>607</v>
       </c>
@@ -12638,7 +12651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>610</v>
       </c>
@@ -12700,7 +12713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>613</v>
       </c>
@@ -12762,7 +12775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>616</v>
       </c>
@@ -12824,7 +12837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>73</v>
       </c>
@@ -12886,7 +12899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>622</v>
       </c>
@@ -12948,7 +12961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>254</v>
       </c>
@@ -13010,7 +13023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>629</v>
       </c>
@@ -13072,7 +13085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>632</v>
       </c>
@@ -13134,7 +13147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>635</v>
       </c>
@@ -13196,7 +13209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>638</v>
       </c>
@@ -13258,7 +13271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>641</v>
       </c>
@@ -13320,7 +13333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>644</v>
       </c>
@@ -13382,7 +13395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>647</v>
       </c>
@@ -13444,7 +13457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>650</v>
       </c>
@@ -13506,7 +13519,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>653</v>
       </c>
@@ -13568,7 +13581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>657</v>
       </c>
@@ -13630,7 +13643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>660</v>
       </c>
@@ -13692,7 +13705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>663</v>
       </c>
@@ -13754,7 +13767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>666</v>
       </c>
@@ -13816,7 +13829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>669</v>
       </c>
@@ -13878,7 +13891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>672</v>
       </c>
@@ -13940,7 +13953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>675</v>
       </c>
@@ -14002,7 +14015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>678</v>
       </c>
@@ -14064,7 +14077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>681</v>
       </c>
@@ -14126,7 +14139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>684</v>
       </c>
@@ -14188,7 +14201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>687</v>
       </c>
@@ -14250,7 +14263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>690</v>
       </c>
@@ -14312,7 +14325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>694</v>
       </c>
@@ -14374,7 +14387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>697</v>
       </c>
@@ -14436,7 +14449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>700</v>
       </c>
@@ -14498,7 +14511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>163</v>
       </c>
@@ -14560,7 +14573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>705</v>
       </c>
@@ -14622,7 +14635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>708</v>
       </c>
@@ -14684,7 +14697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>711</v>
       </c>
@@ -14746,7 +14759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>714</v>
       </c>
@@ -14808,7 +14821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>717</v>
       </c>
@@ -14870,7 +14883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>720</v>
       </c>
@@ -14932,7 +14945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>723</v>
       </c>
@@ -14994,7 +15007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>726</v>
       </c>
@@ -15056,7 +15069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>729</v>
       </c>
@@ -15118,7 +15131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>733</v>
       </c>
@@ -15180,7 +15193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>736</v>
       </c>
@@ -15242,7 +15255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>740</v>
       </c>
@@ -15304,7 +15317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>744</v>
       </c>
@@ -15366,7 +15379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>629</v>
       </c>
@@ -15428,7 +15441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>754</v>
       </c>
@@ -15490,7 +15503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>760</v>
       </c>
@@ -15552,7 +15565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>764</v>
       </c>
@@ -15614,7 +15627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>767</v>
       </c>
@@ -15676,7 +15689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>771</v>
       </c>
@@ -15738,7 +15751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>774</v>
       </c>
@@ -15800,7 +15813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>779</v>
       </c>
@@ -15862,7 +15875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>782</v>
       </c>
@@ -15924,7 +15937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>542</v>
       </c>
@@ -15986,7 +15999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>542</v>
       </c>
@@ -16048,7 +16061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>542</v>
       </c>
@@ -16110,7 +16123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>794</v>
       </c>
@@ -16172,7 +16185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>798</v>
       </c>
@@ -16234,7 +16247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>803</v>
       </c>
@@ -16296,7 +16309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>807</v>
       </c>
@@ -16358,7 +16371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>810</v>
       </c>
@@ -16420,7 +16433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>813</v>
       </c>
@@ -16482,7 +16495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>817</v>
       </c>
@@ -16544,7 +16557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>821</v>
       </c>
@@ -16606,7 +16619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>824</v>
       </c>
@@ -16668,7 +16681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>824</v>
       </c>
@@ -16730,7 +16743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>830</v>
       </c>
@@ -16792,7 +16805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>834</v>
       </c>
@@ -16854,7 +16867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>837</v>
       </c>
@@ -16916,7 +16929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>841</v>
       </c>
@@ -16978,7 +16991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>844</v>
       </c>
@@ -17040,7 +17053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>848</v>
       </c>
@@ -17102,7 +17115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>852</v>
       </c>
@@ -17164,7 +17177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>860</v>
       </c>
@@ -17226,7 +17239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>863</v>
       </c>
@@ -17288,7 +17301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>867</v>
       </c>
@@ -17350,7 +17363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>871</v>
       </c>
@@ -17412,7 +17425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>874</v>
       </c>
@@ -17474,7 +17487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>878</v>
       </c>
@@ -17536,7 +17549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>73</v>
       </c>
@@ -17598,7 +17611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>884</v>
       </c>
@@ -17660,7 +17673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>887</v>
       </c>
@@ -17722,7 +17735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>891</v>
       </c>
@@ -17784,7 +17797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>887</v>
       </c>
@@ -17846,7 +17859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>898</v>
       </c>
@@ -17908,7 +17921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>901</v>
       </c>
@@ -17970,7 +17983,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>905</v>
       </c>
@@ -18032,7 +18045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>908</v>
       </c>
@@ -18094,7 +18107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>913</v>
       </c>
@@ -18156,7 +18169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>916</v>
       </c>
@@ -18218,7 +18231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>920</v>
       </c>
@@ -18280,7 +18293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>924</v>
       </c>
@@ -18342,7 +18355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>928</v>
       </c>
@@ -18404,7 +18417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>932</v>
       </c>
@@ -18466,7 +18479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>937</v>
       </c>
@@ -18528,7 +18541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>940</v>
       </c>
@@ -18590,7 +18603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>944</v>
       </c>
@@ -18652,7 +18665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>948</v>
       </c>
@@ -18714,7 +18727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>952</v>
       </c>
@@ -18776,7 +18789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>955</v>
       </c>
@@ -18838,7 +18851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>960</v>
       </c>
@@ -18900,7 +18913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>965</v>
       </c>
@@ -18962,7 +18975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>969</v>
       </c>
@@ -19024,7 +19037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>973</v>
       </c>
@@ -19086,7 +19099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>976</v>
       </c>
@@ -19148,7 +19161,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>980</v>
       </c>
@@ -19210,7 +19223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>984</v>
       </c>
@@ -19272,7 +19285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>987</v>
       </c>
@@ -19334,7 +19347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>991</v>
       </c>
@@ -19396,7 +19409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>995</v>
       </c>
@@ -19458,7 +19471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>999</v>
       </c>
@@ -19520,7 +19533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>694</v>
       </c>
@@ -19582,7 +19595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>1006</v>
       </c>
@@ -19644,7 +19657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>531</v>
       </c>
@@ -19706,7 +19719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>1012</v>
       </c>
@@ -19768,7 +19781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>694</v>
       </c>
@@ -19830,7 +19843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>1018</v>
       </c>
@@ -19883,7 +19896,7 @@
         <v>1020</v>
       </c>
       <c r="R263" t="s">
-        <v>298</v>
+        <v>1058</v>
       </c>
       <c r="S263" t="s">
         <v>298</v>
@@ -19892,7 +19905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>1021</v>
       </c>
@@ -19945,7 +19958,7 @@
         <v>1024</v>
       </c>
       <c r="R264" t="s">
-        <v>298</v>
+        <v>1058</v>
       </c>
       <c r="S264" t="s">
         <v>298</v>
@@ -19954,7 +19967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>675</v>
       </c>
@@ -20016,7 +20029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>55</v>
       </c>
@@ -20078,7 +20091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>1031</v>
       </c>
@@ -20140,7 +20153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>1035</v>
       </c>
@@ -20202,7 +20215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>1038</v>
       </c>
@@ -20264,7 +20277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>1045</v>
       </c>
@@ -20326,7 +20339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>1050</v>
       </c>
@@ -20389,7 +20402,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T271"/>
+  <autoFilter ref="A1:T271">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="吴凯茵"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
